--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -45,10 +45,16 @@
     <t>Language</t>
   </si>
   <si>
-    <t>ExampleQualityName0001</t>
+    <t>ExampleAreaName0001</t>
   </si>
   <si>
     <t>0|0|0|1|1|1|1|0||10|10|20|40|30|10</t>
+  </si>
+  <si>
+    <t>TestAreaName0001</t>
+  </si>
+  <si>
+    <t>0|0|0|100|100|100|100|0</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -650,17 +656,14 @@
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1522,7 +1525,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
@@ -1548,10 +1551,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1566,9 +1569,15 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1578,8 +1587,8 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1590,8 +1599,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1615,7 +1624,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1650,12 +1659,12 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1663,85 +1672,85 @@
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1752,7 +1761,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1763,7 +1772,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1774,7 +1783,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1785,7 +1794,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1796,8 +1805,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1808,8 +1817,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1820,7 +1829,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1831,7 +1840,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1842,7 +1851,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1853,7 +1862,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1864,7 +1873,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1875,7 +1884,7 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1886,7 +1895,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1897,7 +1906,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1908,7 +1917,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1919,7 +1928,7 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1930,7 +1939,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1941,7 +1950,7 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1952,7 +1961,7 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1963,7 +1972,7 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1974,7 +1983,7 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1985,7 +1994,7 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1996,7 +2005,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -54,7 +54,7 @@
     <t>TestAreaName0001</t>
   </si>
   <si>
-    <t>0|0|0|100|100|100|100|0</t>
+    <t>-1000|-1000|-1000|1000|1000|1000|1000|-1000</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,9 +664,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
       <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1600,7 +1597,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
       <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1624,7 +1621,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1659,12 +1656,12 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1672,85 +1669,85 @@
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1761,7 +1758,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1772,7 +1769,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1783,7 +1780,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1794,7 +1791,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1805,8 +1802,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1817,8 +1814,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1829,7 +1826,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1840,7 +1837,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1851,7 +1848,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1862,7 +1859,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1873,7 +1870,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1884,7 +1881,7 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1895,7 +1892,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1906,7 +1903,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1917,7 +1914,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1928,7 +1925,7 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1939,7 +1936,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1950,7 +1947,7 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1961,7 +1958,7 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1972,7 +1969,7 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1983,7 +1980,7 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1994,7 +1991,7 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2005,7 +2002,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -24,13 +24,19 @@
     <t>int[][]</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>range</t>
+    <t>points</t>
+  </si>
+  <si>
+    <t>isShape</t>
   </si>
   <si>
     <t xml:space="preserve">区域 ID</t>
@@ -39,7 +45,10 @@
     <t>名称</t>
   </si>
   <si>
-    <t>范围</t>
+    <t>点集</t>
+  </si>
+  <si>
+    <t>是否构成形状</t>
   </si>
   <si>
     <t>Language</t>
@@ -656,14 +665,14 @@
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1489,7 +1498,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1499,15 +1510,17 @@
     </row>
     <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1517,15 +1530,17 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1536,7 +1551,7 @@
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1548,14 +1563,14 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1569,11 +1584,11 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1584,8 +1599,8 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1596,8 +1611,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1621,7 +1636,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1656,12 +1671,12 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1669,79 +1684,79 @@
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1803,7 +1818,7 @@
     </row>
     <row r="26" s="1" customFormat="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1815,7 +1830,7 @@
     </row>
     <row r="27" s="1" customFormat="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>int[][]</t>
-  </si>
-  <si>
-    <t>boolean</t>
   </si>
   <si>
     <t>id</t>
@@ -36,9 +33,6 @@
     <t>points</t>
   </si>
   <si>
-    <t>isShape</t>
-  </si>
-  <si>
     <t xml:space="preserve">区域 ID</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>点集</t>
-  </si>
-  <si>
-    <t>是否构成形状</t>
   </si>
   <si>
     <t>Language</t>
@@ -665,14 +656,14 @@
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1484,8 +1475,8 @@
   <cols>
     <col min="1" max="1" style="0" width="10.875"/>
     <col customWidth="1" min="2" max="2" style="1" width="40.625"/>
-    <col customWidth="1" min="3" max="7" style="0" width="10.875"/>
-    <col min="8" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="3" max="6" style="0" width="10.875"/>
+    <col min="7" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -1498,60 +1489,51 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1560,17 +1542,16 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1578,17 +1559,16 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1596,11 +1576,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1608,11 +1587,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1620,7 +1598,6 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
       <c r="A9" s="1"/>
@@ -1632,11 +1609,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1644,7 +1620,6 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
@@ -1656,7 +1631,6 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
@@ -1667,99 +1641,90 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1">
       <c r="A21" s="7"/>
@@ -1770,7 +1735,6 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
       <c r="A22" s="7"/>
@@ -1781,7 +1745,6 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
       <c r="A23" s="7"/>
@@ -1792,7 +1755,6 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
       <c r="A24" s="7"/>
@@ -1803,7 +1765,6 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
       <c r="A25" s="7"/>
@@ -1814,11 +1775,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1826,11 +1786,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1838,7 +1797,6 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
       <c r="A28" s="7"/>
@@ -1849,7 +1807,6 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
       <c r="A29" s="7"/>
@@ -1860,7 +1817,6 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
       <c r="A30" s="7"/>
@@ -1871,7 +1827,6 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
       <c r="A31" s="7"/>
@@ -1882,7 +1837,6 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
       <c r="A32" s="7"/>
@@ -1893,7 +1847,6 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
       <c r="A33" s="7"/>
@@ -1904,7 +1857,6 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
       <c r="A34" s="7"/>
@@ -1915,7 +1867,6 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
       <c r="A35" s="7"/>
@@ -1926,7 +1877,6 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
       <c r="A36" s="7"/>
@@ -1937,7 +1887,6 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
       <c r="A37" s="7"/>
@@ -1948,7 +1897,6 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
       <c r="A38" s="7"/>
@@ -1959,7 +1907,6 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
       <c r="A39" s="7"/>
@@ -1970,7 +1917,6 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
       <c r="A40" s="7"/>
@@ -1981,7 +1927,6 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
       <c r="A41" s="7"/>
@@ -1992,7 +1937,6 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
       <c r="A42" s="7"/>
@@ -2003,7 +1947,6 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
       <c r="A43" s="7"/>
@@ -2014,7 +1957,6 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
       <c r="A44" s="7"/>
@@ -2025,7 +1967,6 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
       <c r="C45" s="1"/>
@@ -2035,7 +1976,6 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CA072-1BE5-4EE7-9039-964FFAEDDB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="7635" yWindow="3375" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -33,7 +40,7 @@
     <t>points</t>
   </si>
   <si>
-    <t xml:space="preserve">区域 ID</t>
+    <t>区域 ID</t>
   </si>
   <si>
     <t>名称</t>
@@ -79,21 +86,40 @@
   </si>
   <si>
     <t>-10249|441|2078||-8841|-1131|1679</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-752|638|1431|4059|4269|4434|6949|7139|7444|7084|7376|6036|6036|4106|-1083|-2273||-16980|-16629|-16260|-15402|-15402|-15642|-15642|-16302|-16587|-16847|-20782|-20057|-22737|-23247|-22087|-18652</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,37 +132,43 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -145,26 +177,179 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -177,27 +362,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="none"/>
-        <diagonal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -216,468 +380,48 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
-      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
-      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -880,24 +624,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="2" max="2" style="1" width="40.625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="51.5"/>
-    <col customWidth="1" min="4" max="6" width="10.875"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -908,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -919,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -930,12 +676,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -946,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -957,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -968,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -979,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -990,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1001,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1012,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1026,7 +772,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1040,7 +786,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1054,33 +800,41 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1">
-      <c r="C16" s="4"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1088,7 +842,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1096,85 +850,85 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" s="1" customFormat="1">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" s="1" customFormat="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" s="1" customFormat="1">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" s="1" customFormat="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" s="1" customFormat="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" s="1" customFormat="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" s="1" customFormat="1">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" s="1" customFormat="1">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" s="1" customFormat="1">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" s="1" customFormat="1">
+    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" s="1" customFormat="1">
+    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" s="1" customFormat="1">
+    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" s="1" customFormat="1">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" s="1" customFormat="1">
+    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" s="1" customFormat="1">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" s="1" customFormat="1">
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" s="1" customFormat="1">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" s="1" customFormat="1">
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" s="1" customFormat="1">
+    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" s="1" customFormat="1">
+    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" s="1" customFormat="1"/>
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CA072-1BE5-4EE7-9039-964FFAEDDB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A269B-C03C-4072-8E6B-CEFE7B87F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="3375" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -53,21 +53,6 @@
   </si>
   <si>
     <t>TestAreaName0001</t>
-  </si>
-  <si>
-    <t>-50|-15371|1048||-492|-15953|1110||-471|-14422|1006</t>
-  </si>
-  <si>
-    <t>-2461|-11936|465||-2673|-11203|419||-1908|-12482|510</t>
-  </si>
-  <si>
-    <t>-2673|-11203|419||-2835|-10598|407||-3227|-10666|372</t>
-  </si>
-  <si>
-    <t>-3797|-9219|689||-3811|-8544|906</t>
-  </si>
-  <si>
-    <t>-3090|-6200|983||-3533|-5161|1131</t>
   </si>
   <si>
     <t>-858|-7036|714||-2389|-8190|945</t>
@@ -90,6 +75,40 @@
   </si>
   <si>
     <t>-752|638|1431|4059|4269|4434|6949|7139|7444|7084|7376|6036|6036|4106|-1083|-2273||-16980|-16629|-16260|-15402|-15402|-15642|-15642|-16302|-16587|-16847|-20782|-20057|-22737|-23247|-22087|-18652</t>
+  </si>
+  <si>
+    <t>TestAreaName0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaName0001</t>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2461|-11936|485||-2673|-11203|439||-1908|-12482|530</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2673|-11203|439||-2835|-10598|437||-3227|-10666|392</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3797|-9219|699||-3811|-8544|916</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3090|-6200|993||-3533|-5161|1131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006|-19105|1507||2716|-19680|1507||2716|-19680|1507||2722|-18470|1507||3026|-17945|1507||3876|-17945|1507</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -170,6 +189,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +655,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -688,8 +710,8 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -699,8 +721,8 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -710,8 +732,8 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -721,8 +743,8 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -732,8 +754,8 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -744,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -755,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -766,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -780,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -794,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -804,11 +826,11 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -819,17 +841,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A269B-C03C-4072-8E6B-CEFE7B87F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -40,7 +33,7 @@
     <t>points</t>
   </si>
   <si>
-    <t>区域 ID</t>
+    <t xml:space="preserve">区域 ID</t>
   </si>
   <si>
     <t>名称</t>
@@ -55,6 +48,21 @@
     <t>TestAreaName0001</t>
   </si>
   <si>
+    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
+  </si>
+  <si>
+    <t>-2461|-11936|485||-2673|-11203|439||-1908|-12482|530</t>
+  </si>
+  <si>
+    <t>-2673|-11203|439||-2835|-10598|437||-3227|-10666|392</t>
+  </si>
+  <si>
+    <t>-3797|-9219|699||-3811|-8544|916</t>
+  </si>
+  <si>
+    <t>-3090|-6200|993||-3533|-5161|1131</t>
+  </si>
+  <si>
     <t>-858|-7036|714||-2389|-8190|945</t>
   </si>
   <si>
@@ -71,74 +79,33 @@
   </si>
   <si>
     <t>-10249|441|2078||-8841|-1131|1679</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-752|638|1431|4059|4269|4434|6949|7139|7444|7084|7376|6036|6036|4106|-1083|-2273||-16980|-16629|-16260|-15402|-15402|-15642|-15642|-16302|-16587|-16847|-20782|-20057|-22737|-23247|-22087|-18652</t>
-  </si>
-  <si>
-    <t>TestAreaName0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AreaName0001</t>
   </si>
   <si>
+    <t>-752|-16980|638|-16629|1431|-16260|4059|-15402|4269|-15402|4434|-15642|6949|-15642|7139|-16302|7444|-16587|7084|-16847|7376|-20782|6036|-20057|6036|-22737|4106|-23247|-1083|-22087|-2273|-18652</t>
+  </si>
+  <si>
     <t>AreaName0002</t>
   </si>
   <si>
-    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2461|-11936|485||-2673|-11203|439||-1908|-12482|530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2673|-11203|439||-2835|-10598|437||-3227|-10666|392</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3797|-9219|699||-3811|-8544|916</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3090|-6200|993||-3533|-5161|1131</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3006|-19105|1507||2716|-19680|1507||2716|-19680|1507||2722|-18470|1507||3026|-17945|1507||3876|-17945|1507</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,47 +118,41 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,179 +160,26 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -384,6 +192,27 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="none"/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -402,48 +231,468 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,26 +895,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" style="1" width="40.625"/>
+    <col customWidth="1" min="3" max="3" width="54.875"/>
+    <col customWidth="1" min="4" max="6" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -676,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -687,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -698,67 +945,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -766,10 +1013,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -777,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -788,13 +1035,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -802,13 +1049,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -816,149 +1063,149 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+    <row r="18" s="1" customFormat="1">
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+    <row r="19" s="1" customFormat="1">
+      <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+    <row r="20" s="1" customFormat="1">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" s="1" customFormat="1">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" s="1" customFormat="1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" s="1" customFormat="1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" s="1" customFormat="1">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1">
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
+    <row r="26" s="1" customFormat="1">
+      <c r="A26" s="8"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="1" customFormat="1">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" s="1" customFormat="1">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" s="1" customFormat="1">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" s="1" customFormat="1">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" s="1" customFormat="1">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" s="1" customFormat="1">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" s="1" customFormat="1">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" s="1" customFormat="1">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" s="1" customFormat="1">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>3006|-19105|1507||2716|-19680|1507||2716|-19680|1507||2722|-18470|1507||3026|-17945|1507||3876|-17945|1507</t>
+  </si>
+  <si>
+    <t>BirthPoint</t>
+  </si>
+  <si>
+    <t>3006|19105|1508</t>
   </si>
 </sst>
 </file>
@@ -148,11 +154,11 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -211,7 +217,7 @@
           <color theme="4"/>
         </top>
         <bottom style="none"/>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -231,7 +237,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
@@ -264,7 +270,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -281,7 +287,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -302,7 +308,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -322,7 +328,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -339,7 +345,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -373,7 +379,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -1090,7 +1096,7 @@
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4"/>
@@ -1112,15 +1118,21 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1128,78 +1140,78 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1"/>
   </sheetData>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -96,7 +96,7 @@
     <t>BirthPoint</t>
   </si>
   <si>
-    <t>3006|19105|1508</t>
+    <t>3006|-19105|1508</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="120" workbookViewId="0">
       <selection activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1121,7 @@
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="8" t="s">

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28100DBE-32C6-47EF-8C0A-1CCF90AC3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B172AF25-27FB-4EBD-9910-4111705FE647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,62 +55,65 @@
     <t>TestAreaName0001</t>
   </si>
   <si>
+    <t>AreaName0001</t>
+  </si>
+  <si>
+    <t>-752|-16980|638|-16629|1431|-16260|4059|-15402|4269|-15402|4434|-15642|6949|-15642|7139|-16302|7444|-16587|7084|-16847|7376|-20782|6036|-20057|6036|-22737|4106|-23247|-1083|-22087|-2273|-18652</t>
+  </si>
+  <si>
+    <t>AreaName0002</t>
+  </si>
+  <si>
+    <t>3006|-19105|1507||2716|-19680|1507||2716|-19680|1507||2722|-18470|1507||3026|-17945|1507||3876|-17945|1507</t>
+  </si>
+  <si>
+    <t>BirthPoint</t>
+  </si>
+  <si>
+    <t>3006|-19105|1508</t>
+  </si>
+  <si>
+    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
-  </si>
-  <si>
-    <t>-2461|-11936|485||-2673|-11203|439||-1908|-12482|530</t>
-  </si>
-  <si>
-    <t>-2673|-11203|439||-2835|-10598|437||-3227|-10666|392</t>
-  </si>
-  <si>
-    <t>AreaName0001</t>
-  </si>
-  <si>
-    <t>-752|-16980|638|-16629|1431|-16260|4059|-15402|4269|-15402|4434|-15642|6949|-15642|7139|-16302|7444|-16587|7084|-16847|7376|-20782|6036|-20057|6036|-22737|4106|-23247|-1083|-22087|-2273|-18652</t>
-  </si>
-  <si>
-    <t>AreaName0002</t>
-  </si>
-  <si>
-    <t>3006|-19105|1507||2716|-19680|1507||2716|-19680|1507||2722|-18470|1507||3026|-17945|1507||3876|-17945|1507</t>
-  </si>
-  <si>
-    <t>BirthPoint</t>
-  </si>
-  <si>
-    <t>3006|-19105|1508</t>
-  </si>
-  <si>
-    <t>-3797|-9219|699||-3811|-8544|916||-1747|-7508|844||-2399|-6110|882</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3090|-6200|993||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-858|-7036|714||-2389|-8190|945||-3963|-7967|1011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2673|-11203|430||-2835|-10598|430||-3227|-10666|392</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2461|-11936|480||-2673|-11203|430||-1908|-12482|530</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -196,6 +199,97 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color theme="1"/>
@@ -222,13 +316,6 @@
         <b/>
         <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
@@ -245,86 +332,56 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
       <border>
         <left/>
         <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
+        <top style="double">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+        <b/>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -350,82 +407,28 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
       <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
       <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -651,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -707,8 +710,8 @@
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -718,8 +721,8 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -729,8 +732,8 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -741,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -752,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -763,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -774,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -785,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -799,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -813,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -827,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -838,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -852,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -866,10 +869,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>

--- a/Excels/Area_区域表.xlsx
+++ b/Excels/Area_区域表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B172AF25-27FB-4EBD-9910-4111705FE647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E3412-8E42-4BBD-8D13-89D691BE2C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,19 +101,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-2673|-11203|430||-2835|-10598|430||-3227|-10666|392</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2461|-11936|480||-2673|-11203|430||-1908|-12482|530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +655,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
